--- a/Delay Model/OutPut/3rd/main_30_7.xlsx
+++ b/Delay Model/OutPut/3rd/main_30_7.xlsx
@@ -333,8 +333,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
+      <selection activeCell="AL15" sqref="AL15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -344,10 +344,10 @@
         <v>10</v>
       </c>
       <c r="B1">
-        <v>1053.9119222830725</v>
+        <v>1025.1654123415501</v>
       </c>
       <c r="C1">
-        <v>11.610091984225621</v>
+        <v>9.8443438331496207</v>
       </c>
       <c r="D1">
         <v>0</v>
@@ -359,7 +359,7 @@
         <v>404.59296822283994</v>
       </c>
       <c r="G1">
-        <v>11.633963455797824</v>
+        <v>9.8418471971860697</v>
       </c>
       <c r="H1">
         <v>0</v>
@@ -389,7 +389,7 @@
         <v>0</v>
       </c>
       <c r="Q1">
-        <v>11.320929594443806</v>
+        <v>9.8584060415702996</v>
       </c>
       <c r="R1">
         <v>0</v>
@@ -398,10 +398,10 @@
         <v>0</v>
       </c>
       <c r="T1">
-        <v>0.19299066232836556</v>
+        <v>7.0588388670902794E-2</v>
       </c>
       <c r="U1">
-        <v>11.482808710358334</v>
+        <v>9.9381617420716495</v>
       </c>
       <c r="V1">
         <v>0</v>
@@ -431,7 +431,7 @@
         <v>0</v>
       </c>
       <c r="AE1">
-        <v>11.40305300985715</v>
+        <v>9.8584060415702996</v>
       </c>
       <c r="AF1">
         <v>0</v>
@@ -440,10 +440,10 @@
         <v>0</v>
       </c>
       <c r="AH1">
-        <v>10.265169963322498</v>
+        <v>7.7461173364011202</v>
       </c>
       <c r="AI1">
-        <v>11.482808710358334</v>
+        <v>9.9381617420716495</v>
       </c>
       <c r="AJ1">
         <v>0</v>
@@ -452,7 +452,7 @@
         <v>0</v>
       </c>
       <c r="AL1">
-        <v>6.5013183859196984</v>
+        <v>5.3002636771839402</v>
       </c>
       <c r="AM1">
         <v>0</v>
@@ -464,7 +464,7 @@
         <v>10.700020780230494</v>
       </c>
       <c r="AP1">
-        <v>6.5013183859197889</v>
+        <v>5.3002636771839402</v>
       </c>
       <c r="AQ1">
         <v>0</v>
@@ -475,10 +475,10 @@
         <v>20</v>
       </c>
       <c r="B2">
-        <v>2107.823844566145</v>
+        <v>2050.33</v>
       </c>
       <c r="C2">
-        <v>23.306888923970405</v>
+        <v>19.762205894692976</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -490,7 +490,7 @@
         <v>14347.754780638201</v>
       </c>
       <c r="G2">
-        <v>23.33803678478963</v>
+        <v>19.743004418991941</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -520,22 +520,22 @@
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>75.976708724591305</v>
+        <v>27.440729406900999</v>
       </c>
       <c r="R2">
-        <v>52.846416629982741</v>
+        <v>7.1938156260877602</v>
       </c>
       <c r="S2">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="T2">
-        <v>0.30368055017833073</v>
+        <v>0.17171739518625601</v>
       </c>
       <c r="U2">
-        <v>76.18792354958687</v>
+        <v>27.4353533954569</v>
       </c>
       <c r="V2">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="W2">
         <v>0</v>
@@ -562,7 +562,7 @@
         <v>0</v>
       </c>
       <c r="AE2">
-        <v>30.290546378039807</v>
+        <v>20.859603613767501</v>
       </c>
       <c r="AF2">
         <v>0</v>
@@ -571,10 +571,10 @@
         <v>0</v>
       </c>
       <c r="AH2">
-        <v>43.314141776480575</v>
+        <v>19.786512366212499</v>
       </c>
       <c r="AI2">
-        <v>30.283901021604638</v>
+        <v>20.802157804707601</v>
       </c>
       <c r="AJ2">
         <v>0</v>
@@ -583,7 +583,7 @@
         <v>0</v>
       </c>
       <c r="AL2">
-        <v>12.147499786197514</v>
+        <v>9.9033685267321747</v>
       </c>
       <c r="AM2">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>14401.209962895831</v>
       </c>
       <c r="AP2">
-        <v>12.14749978619742</v>
+        <v>9.9033685267321747</v>
       </c>
       <c r="AQ2">
         <v>0</v>
@@ -606,10 +606,10 @@
         <v>30</v>
       </c>
       <c r="B3">
-        <v>3161.7357668492177</v>
+        <v>3075.4949999999999</v>
       </c>
       <c r="C3">
-        <v>34.338410134882388</v>
+        <v>29.115972251621969</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -621,7 +621,7 @@
         <v>14401.482069347501</v>
       </c>
       <c r="G3">
-        <v>34.381989785775879</v>
+        <v>29.085727412886488</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -651,22 +651,22 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>113.73669036012383</v>
+        <v>51.679971795769497</v>
       </c>
       <c r="R3">
-        <v>79.326837014898132</v>
+        <v>21.598441901971601</v>
       </c>
       <c r="S3">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="T3">
-        <v>0.33403588421856062</v>
+        <v>0.27183030373901901</v>
       </c>
       <c r="U3">
-        <v>114.02548206945532</v>
+        <v>51.496221161374201</v>
       </c>
       <c r="V3">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="W3">
         <v>0</v>
@@ -693,7 +693,7 @@
         <v>0</v>
       </c>
       <c r="AE3">
-        <v>48.045575769917619</v>
+        <v>35.357912060551698</v>
       </c>
       <c r="AF3">
         <v>0</v>
@@ -702,10 +702,10 @@
         <v>0</v>
       </c>
       <c r="AH3">
-        <v>55.998655210939091</v>
+        <v>53.497485039024198</v>
       </c>
       <c r="AI3">
-        <v>48.032850601891191</v>
+        <v>35.269987605196199</v>
       </c>
       <c r="AJ3">
         <v>0</v>
@@ -714,7 +714,7 @@
         <v>0</v>
       </c>
       <c r="AL3">
-        <v>15.219152418468077</v>
+        <v>12.407563508323898</v>
       </c>
       <c r="AM3">
         <v>0</v>
@@ -726,7 +726,7 @@
         <v>14401.147309315706</v>
       </c>
       <c r="AP3">
-        <v>15.219152418467756</v>
+        <v>12.407563508323898</v>
       </c>
       <c r="AQ3">
         <v>0</v>
@@ -737,10 +737,10 @@
         <v>40</v>
       </c>
       <c r="B4">
-        <v>4215.64768913229</v>
+        <v>4100.66</v>
       </c>
       <c r="C4">
-        <v>49.444886594813646</v>
+        <v>41.924944702572205</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -752,7 +752,7 @@
         <v>14401.561931407856</v>
       </c>
       <c r="G4">
-        <v>49.449597484429084</v>
+        <v>41.832294235166387</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -782,22 +782,22 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>152.59067452186861</v>
+        <v>76.920194354483897</v>
       </c>
       <c r="R4">
-        <v>105.81965483476591</v>
+        <v>36.009035711346897</v>
       </c>
       <c r="S4">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="T4">
-        <v>0.64041825942260988</v>
+        <v>0.27637430014870101</v>
       </c>
       <c r="U4">
-        <v>153.78979747062584</v>
+        <v>76.8618103826891</v>
       </c>
       <c r="V4">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="W4">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="AE4">
-        <v>64.282913506395403</v>
+        <v>52.2129161943855</v>
       </c>
       <c r="AF4">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="AH4">
-        <v>71.999417284411038</v>
+        <v>63.463680028697297</v>
       </c>
       <c r="AI4">
-        <v>64.299594045787501</v>
+        <v>52.269682226845902</v>
       </c>
       <c r="AJ4">
         <v>0</v>
@@ -845,7 +845,7 @@
         <v>0</v>
       </c>
       <c r="AL4">
-        <v>20.681192778312155</v>
+        <v>16.860545565823742</v>
       </c>
       <c r="AM4">
         <v>0</v>
@@ -857,7 +857,7 @@
         <v>14401.377711899091</v>
       </c>
       <c r="AP4">
-        <v>20.681192778312539</v>
+        <v>16.860545565823742</v>
       </c>
       <c r="AQ4">
         <v>0</v>
@@ -868,10 +868,10 @@
         <v>50</v>
       </c>
       <c r="B5">
-        <v>5269.5596114153623</v>
+        <v>5125.8249999999998</v>
       </c>
       <c r="C5">
-        <v>62.288166680273626</v>
+        <v>52.814924323620332</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>14401.561931407856</v>
       </c>
       <c r="G5">
-        <v>62.242600698812552</v>
+        <v>52.654640661424608</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -913,22 +913,22 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>238.1100218659364</v>
+        <v>109.466480025275</v>
       </c>
       <c r="R5">
-        <v>178.7029043559094</v>
+        <v>57.659824853824098</v>
       </c>
       <c r="S5">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="T5">
-        <v>0.65126388048285988</v>
+        <v>0.46622540940214602</v>
       </c>
       <c r="U5">
-        <v>241.49684583599128</v>
+        <v>109.254393402142</v>
       </c>
       <c r="V5">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="W5">
         <v>0</v>
@@ -955,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="AE5">
-        <v>80.828009723710764</v>
+        <v>76.9767291151596</v>
       </c>
       <c r="AF5">
         <v>0</v>
@@ -964,10 +964,10 @@
         <v>0</v>
       </c>
       <c r="AH5">
-        <v>114.66552283217949</v>
+        <v>66.213478942436396</v>
       </c>
       <c r="AI5">
-        <v>80.656165358849165</v>
+        <v>76.950017798746899</v>
       </c>
       <c r="AJ5">
         <v>0</v>
@@ -976,7 +976,7 @@
         <v>0</v>
       </c>
       <c r="AL5">
-        <v>24.923966490079255</v>
+        <v>20.319508511507696</v>
       </c>
       <c r="AM5">
         <v>0</v>
@@ -988,7 +988,7 @@
         <v>14401.15026160967</v>
       </c>
       <c r="AP5">
-        <v>24.923394210603647</v>
+        <v>20.319508511507696</v>
       </c>
       <c r="AQ5">
         <v>0</v>
@@ -999,10 +999,10 @@
         <v>60</v>
       </c>
       <c r="B6">
-        <v>6323.4715336984355</v>
+        <v>6150.99</v>
       </c>
       <c r="C6">
-        <v>78.359282190508296</v>
+        <v>66.441826425685477</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1014,7 +1014,7 @@
         <v>14401.561931407856</v>
       </c>
       <c r="G6">
-        <v>77.52951757761366</v>
+        <v>65.586733890776046</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -1044,22 +1044,22 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>323.09360796258011</v>
+        <v>134.022989343576</v>
       </c>
       <c r="R6">
-        <v>251.5985272629174</v>
+        <v>72.094792667862507</v>
       </c>
       <c r="S6">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="T6">
-        <v>0.8773701709667785</v>
+        <v>0.472207034305553</v>
       </c>
       <c r="U6">
-        <v>329.64100399684935</v>
+        <v>133.889766564952</v>
       </c>
       <c r="V6">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="W6">
         <v>0</v>
@@ -1086,7 +1086,7 @@
         <v>0</v>
       </c>
       <c r="AE6">
-        <v>114.85814380037317</v>
+        <v>90.623270027052399</v>
       </c>
       <c r="AF6">
         <v>0</v>
@@ -1095,10 +1095,10 @@
         <v>0</v>
       </c>
       <c r="AH6">
-        <v>106.01208018798603</v>
+        <v>154.299997392595</v>
       </c>
       <c r="AI6">
-        <v>114.99996211573053</v>
+        <v>90.655043033090095</v>
       </c>
       <c r="AJ6">
         <v>0</v>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="AL6">
-        <v>29.022875724300228</v>
+        <v>23.661184528677854</v>
       </c>
       <c r="AM6">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>14401.15026160967</v>
       </c>
       <c r="AP6">
-        <v>29.02218482651859</v>
+        <v>23.661184528677854</v>
       </c>
       <c r="AQ6">
         <v>0</v>
@@ -1130,10 +1130,10 @@
         <v>70</v>
       </c>
       <c r="B7">
-        <v>7377.3834559815077</v>
+        <v>7176.1549999999997</v>
       </c>
       <c r="C7">
-        <v>90.518730630274703</v>
+        <v>76.751976545525295</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1145,7 +1145,7 @@
         <v>14401.561931407856</v>
       </c>
       <c r="G7">
-        <v>88.670626387976526</v>
+        <v>75.011646641741478</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -1175,22 +1175,22 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>374.57458344106055</v>
+        <v>165.61646794222</v>
       </c>
       <c r="R7">
-        <v>291.58833802935845</v>
+        <v>93.8065307814269</v>
       </c>
       <c r="S7">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="T7">
-        <v>0.91566070861376114</v>
+        <v>0.617977585795488</v>
       </c>
       <c r="U7">
-        <v>387.58763238028126</v>
+        <v>165.079967327145</v>
       </c>
       <c r="V7">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="W7">
         <v>0</v>
@@ -1217,7 +1217,7 @@
         <v>0</v>
       </c>
       <c r="AE7">
-        <v>140.39749719216979</v>
+        <v>130.42566758963699</v>
       </c>
       <c r="AF7">
         <v>0</v>
@@ -1226,10 +1226,10 @@
         <v>0</v>
       </c>
       <c r="AH7">
-        <v>122.99339141262901</v>
+        <v>92.665198091695302</v>
       </c>
       <c r="AI7">
-        <v>140.3098154820886</v>
+        <v>130.483709908652</v>
       </c>
       <c r="AJ7">
         <v>0</v>
@@ -1238,7 +1238,7 @@
         <v>0</v>
       </c>
       <c r="AL7">
-        <v>33.341919853208267</v>
+        <v>27.182327681147452</v>
       </c>
       <c r="AM7">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>14401.15026160967</v>
       </c>
       <c r="AP7">
-        <v>33.341670299544944</v>
+        <v>27.182327681147452</v>
       </c>
       <c r="AQ7">
         <v>0</v>
@@ -1261,10 +1261,10 @@
         <v>80</v>
       </c>
       <c r="B8">
-        <v>8431.29537826458</v>
+        <v>8201.32</v>
       </c>
       <c r="C8">
-        <v>106.71900243095779</v>
+        <v>90.488391899777923</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1276,7 +1276,7 @@
         <v>14401.561931407856</v>
       </c>
       <c r="G8">
-        <v>105.67266658757552</v>
+        <v>89.394662569256539</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1306,22 +1306,22 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>467.50696455866796</v>
+        <v>195.13059345362501</v>
       </c>
       <c r="R8">
-        <v>371.26571980559947</v>
+        <v>111.897193828006</v>
       </c>
       <c r="S8">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="T8">
-        <v>0.90193153427631856</v>
+        <v>0.73152534793058899</v>
       </c>
       <c r="U8">
-        <v>489.52135820108907</v>
+        <v>194.742175443099</v>
       </c>
       <c r="V8">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="W8">
         <v>0</v>
@@ -1348,7 +1348,7 @@
         <v>0</v>
       </c>
       <c r="AE8">
-        <v>156.43170550083639</v>
+        <v>135.29278334330201</v>
       </c>
       <c r="AF8">
         <v>0</v>
@@ -1357,10 +1357,10 @@
         <v>0</v>
       </c>
       <c r="AH8">
-        <v>218.20916408164814</v>
+        <v>159.58930955906399</v>
       </c>
       <c r="AI8">
-        <v>156.36134562810784</v>
+        <v>135.28999421547701</v>
       </c>
       <c r="AJ8">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         <v>0</v>
       </c>
       <c r="AL8">
-        <v>42.782384635737827</v>
+        <v>34.878759329679497</v>
       </c>
       <c r="AM8">
         <v>0</v>
@@ -1381,7 +1381,7 @@
         <v>14401.15026160967</v>
       </c>
       <c r="AP8">
-        <v>42.781740235582689</v>
+        <v>34.878759329679497</v>
       </c>
       <c r="AQ8">
         <v>0</v>
@@ -1392,10 +1392,10 @@
         <v>90</v>
       </c>
       <c r="B9">
-        <v>9485.2073005476523</v>
+        <v>9226.4850000000006</v>
       </c>
       <c r="C9">
-        <v>115.30387635914404</v>
+        <v>97.767615081483342</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1407,7 +1407,7 @@
         <v>14401.561931407856</v>
       </c>
       <c r="G9">
-        <v>113.26548352404919</v>
+        <v>95.817868587472077</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1437,22 +1437,22 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>533.2705138315614</v>
+        <v>243.324400927429</v>
       </c>
       <c r="R9">
-        <v>418.06095949032698</v>
+        <v>137.27327634358801</v>
       </c>
       <c r="S9">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="T9">
-        <v>1.1495074374262222</v>
+        <v>0.85329670850630401</v>
       </c>
       <c r="U9">
-        <v>612.25650309302466</v>
+        <v>242.41288566777001</v>
       </c>
       <c r="V9">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="W9">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="AE9">
-        <v>198.37808222804111</v>
+        <v>167.59794357399201</v>
       </c>
       <c r="AF9">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="AH9">
-        <v>174.23725768908034</v>
+        <v>150.591247730372</v>
       </c>
       <c r="AI9">
-        <v>198.61664154326354</v>
+        <v>167.90298448463901</v>
       </c>
       <c r="AJ9">
         <v>0</v>
@@ -1500,7 +1500,7 @@
         <v>0</v>
       </c>
       <c r="AL9">
-        <v>51.55801778768857</v>
+        <v>42.033180460678423</v>
       </c>
       <c r="AM9">
         <v>0</v>
@@ -1512,7 +1512,7 @@
         <v>14401.15026160967</v>
       </c>
       <c r="AP9">
-        <v>51.557286290819604</v>
+        <v>42.033180460678423</v>
       </c>
       <c r="AQ9">
         <v>0</v>
@@ -1523,10 +1523,10 @@
         <v>100</v>
       </c>
       <c r="B10">
-        <v>10539.119222830725</v>
+        <v>10251.65</v>
       </c>
       <c r="C10">
-        <v>129.14182065652199</v>
+        <v>109.5009830679254</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>14401.561931407856</v>
       </c>
       <c r="G10">
-        <v>128.01058372119942</v>
+        <v>108.291607532838</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -1568,22 +1568,22 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>638.63170674633022</v>
+        <v>532.978602813924</v>
       </c>
       <c r="R10">
-        <v>464.91819159288929</v>
+        <v>162.680124704164</v>
       </c>
       <c r="S10">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="T10">
-        <v>0.77176788403525209</v>
+        <v>0.77843889111001197</v>
       </c>
       <c r="U10">
-        <v>1939.816800863003</v>
+        <v>532.45605836157404</v>
       </c>
       <c r="V10">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="W10">
         <v>0</v>
@@ -1610,7 +1610,7 @@
         <v>0</v>
       </c>
       <c r="AE10">
-        <v>219.00919999999999</v>
+        <v>186.80625099945919</v>
       </c>
       <c r="AF10">
         <v>0</v>
@@ -1619,10 +1619,10 @@
         <v>0</v>
       </c>
       <c r="AH10">
-        <v>225.8817</v>
+        <v>117.346218393111</v>
       </c>
       <c r="AI10">
-        <v>219.08199999999999</v>
+        <v>186.2633421396792</v>
       </c>
       <c r="AJ10">
         <v>0</v>
@@ -1631,7 +1631,7 @@
         <v>0</v>
       </c>
       <c r="AL10">
-        <v>60.036967117524334</v>
+        <v>48.945727191344986</v>
       </c>
       <c r="AM10">
         <v>0</v>
@@ -1643,7 +1643,7 @@
         <v>14401.15026160967</v>
       </c>
       <c r="AP10">
-        <v>60.036168398335462</v>
+        <v>48.945727191344986</v>
       </c>
       <c r="AQ10">
         <v>0</v>

--- a/Delay Model/OutPut/3rd/main_30_7.xlsx
+++ b/Delay Model/OutPut/3rd/main_30_7.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{ABE76412-3220-484F-8682-1DD291839DDF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -53,7 +54,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,11 +331,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AQ10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
-      <selection activeCell="AL15" sqref="AL15"/>
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="AJ3" sqref="AJ3:AJ6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1229,7 +1230,7 @@
         <v>92.665198091695302</v>
       </c>
       <c r="AI7">
-        <v>130.483709908652</v>
+        <v>117.487727745893</v>
       </c>
       <c r="AJ7">
         <v>0</v>
